--- a/graphs_and_data/data_results.xlsx
+++ b/graphs_and_data/data_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>121 Instances</t>
   </si>
@@ -51,7 +51,28 @@
     <t>a</t>
   </si>
   <si>
-    <t>about 17 training instances</t>
+    <t>VotedPerceptron</t>
+  </si>
+  <si>
+    <t>Dagging</t>
+  </si>
+  <si>
+    <t>Hyperpipes</t>
+  </si>
+  <si>
+    <t>DecisionTable</t>
+  </si>
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Learning Model</t>
   </si>
 </sst>
 </file>
@@ -113,7 +134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -124,23 +145,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -471,19 +529,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M1" sqref="M1:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -505,8 +566,18 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="5"/>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,8 +596,21 @@
       <c r="F2" s="1">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="5"/>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>3</v>
       </c>
@@ -545,8 +629,21 @@
       <c r="F3" s="1">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" s="5"/>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>5</v>
       </c>
@@ -565,8 +662,21 @@
       <c r="F4" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="5"/>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>7</v>
       </c>
@@ -585,16 +695,57 @@
       <c r="F5" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I5" s="5"/>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="I6" s="5"/>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="I7" s="5"/>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="5"/>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -616,8 +767,15 @@
       <c r="H9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9" s="5"/>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -636,8 +794,42 @@
       <c r="F10" s="1">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I10" s="5"/>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="I11" s="5"/>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="I12" s="5"/>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="I13" s="5"/>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -659,11 +851,15 @@
       <c r="H14" t="s">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="I14" s="5"/>
+      <c r="J14">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="1">
         <v>0.61</v>
       </c>
@@ -679,101 +875,239 @@
       <c r="F15" s="1">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="I16" s="5"/>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="I17" s="5"/>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="I18" s="5"/>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="I19" s="5"/>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="I21" s="5"/>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>0.89900000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="I25" s="5"/>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="I26" s="5"/>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="I27" s="5"/>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>0.96599999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
+      <c r="I29" s="5"/>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
         <v>3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>5</v>
       </c>
       <c r="F30" s="1">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="5"/>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="I33" s="5"/>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="I34" s="5"/>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>15</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>20</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="F35" s="1">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="F36" s="1">
         <v>0.9</v>
       </c>
+      <c r="I36" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="M2:N8">
+    <sortCondition descending="1" ref="N2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
